--- a/workspace/tp-patrones-persistidor/SQL/Modelo.xlsx
+++ b/workspace/tp-patrones-persistidor/SQL/Modelo.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java64\workspace\tp-patrones-persitidor\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java64\workspace\tp-patrones-persistidor\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA502C1D-5118-4598-BD6E-F9A950EDF760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A251B5-5FC5-4D77-B34F-D4C67952A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1FA6D53A-2D3A-40AA-99BD-3A5E3626B78E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1FA6D53A-2D3A-40AA-99BD-3A5E3626B78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sesion" sheetId="1" r:id="rId1"/>
-    <sheet name="Clase" sheetId="2" r:id="rId2"/>
-    <sheet name="Primitivo" sheetId="4" r:id="rId3"/>
+    <sheet name="Valor" sheetId="6" r:id="rId2"/>
+    <sheet name="Valor (2)" sheetId="7" r:id="rId3"/>
     <sheet name="Objeto" sheetId="5" r:id="rId4"/>
-    <sheet name="Atributo" sheetId="3" r:id="rId5"/>
-    <sheet name="Valor" sheetId="6" r:id="rId6"/>
+    <sheet name="Clase" sheetId="2" r:id="rId5"/>
+    <sheet name="Primitivo" sheetId="4" r:id="rId6"/>
+    <sheet name="Atributo" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="127">
   <si>
     <t>ID_SESION</t>
   </si>
@@ -580,7 +581,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -603,25 +604,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
-    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="1" builtinId="10"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="33">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -721,81 +743,101 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2BD840E0-ABD5-43A3-8673-C8CFCCBF6454}" name="Tabla3" displayName="Tabla3" ref="A2:B3" totalsRowShown="0" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2BD840E0-ABD5-43A3-8673-C8CFCCBF6454}" name="Tabla3" displayName="Tabla3" ref="A2:B3" totalsRowShown="0" dataDxfId="32">
   <autoFilter ref="A2:B3" xr:uid="{2BD840E0-ABD5-43A3-8673-C8CFCCBF6454}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E00A949B-7D0F-47D9-B93C-25FBD1439E83}" name="ID" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{0BC868F1-730B-4C4D-993F-5623287758A0}" name="ULTIMO_ACCESO" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{E00A949B-7D0F-47D9-B93C-25FBD1439E83}" name="ID" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{0BC868F1-730B-4C4D-993F-5623287758A0}" name="ULTIMO_ACCESO" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6BD10E35-F03C-49D5-908E-2E5CEF5B3C92}" name="Tabla7" displayName="Tabla7" ref="A2:B4" totalsRowShown="0" dataDxfId="23">
-  <autoFilter ref="A2:B4" xr:uid="{6BD10E35-F03C-49D5-908E-2E5CEF5B3C92}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D8C413AE-6D4D-41A4-A5E4-E8086309B76A}" name="ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{A9D4FA42-2751-4523-BCCA-576FE5F16CBB}" name="NOMBRE" dataDxfId="21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F10132A3-C980-47B9-8FC3-1DC2AE879F9B}" name="Tabla8" displayName="Tabla8" ref="A2:E28" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A2:E28" xr:uid="{F10132A3-C980-47B9-8FC3-1DC2AE879F9B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E28">
+    <sortCondition ref="B2:B28"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{17A2852E-4687-4931-9285-F0F05A074AFC}" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{16322227-406C-4405-8468-446BFF4A8592}" name="ID_OBJETO" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{911EA243-45FC-42F3-8A79-EA995B705FD4}" name="ID_ATRIBUTO" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{377A820B-7800-438F-BCE4-E215D0FAC04B}" name="VALOR_PRIMITIVO" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{37F1C8EA-B4AD-4B0B-93A2-CC770BDF3372}" name="ID_OBJETO_VALOR" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3EB20B64-F6DD-410D-8178-4BF665C122F3}" name="Tabla4" displayName="Tabla4" ref="A2:B11" totalsRowShown="0" dataDxfId="20">
-  <autoFilter ref="A2:B11" xr:uid="{3EB20B64-F6DD-410D-8178-4BF665C122F3}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E2BFE1D0-31AA-4096-A1A9-1EC1DD7949F4}" name="ID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{618BA1C2-FD69-4424-9500-69A5BC1723AC}" name="NOMBRE" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0581CEA5-6664-41E3-A047-511CA1CB1114}" name="Tabla82" displayName="Tabla82" ref="A2:E28" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A2:E28" xr:uid="{F10132A3-C980-47B9-8FC3-1DC2AE879F9B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E28">
+    <sortCondition ref="B2:B28"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C852D5BE-EB1C-4CCF-908B-10F889F0A1F0}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{73C2CA4D-4B53-4DC5-BF4C-77B434A77712}" name="ID_OBJETO" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{ED602148-F58D-443F-AED8-5265171D437C}" name="ID_ATRIBUTO" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{14F0CCEC-E49C-4AA5-AE7B-F1CFC6B97B97}" name="VALOR_PRIMITIVO" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{0B819FDC-AD75-4B7D-BFBA-E976E1442BCD}" name="ID_OBJETO_VALOR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3364FA21-105C-411A-BF6F-0EB60345DD01}" name="Tabla6" displayName="Tabla6" ref="A2:C6" totalsRowShown="0" dataDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3364FA21-105C-411A-BF6F-0EB60345DD01}" name="Tabla6" displayName="Tabla6" ref="A2:C6" totalsRowShown="0" dataDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="A2:C6" xr:uid="{3364FA21-105C-411A-BF6F-0EB60345DD01}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E9A185FE-D844-473A-AD5A-D223F152451C}" name="ID" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{0F766A12-09DE-49FD-A7C5-474E244260DB}" name="ID_SESION" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{F5B65D11-8362-47A5-B994-9EDB047FFE26}" name="ID_CLASE" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{E9A185FE-D844-473A-AD5A-D223F152451C}" name="ID" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{0F766A12-09DE-49FD-A7C5-474E244260DB}" name="ID_SESION" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{F5B65D11-8362-47A5-B994-9EDB047FFE26}" name="ID_CLASE" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1A511366-58D6-4581-A75B-DEE2C3351E02}" name="Tabla5" displayName="Tabla5" ref="A2:F13" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A2:F13" xr:uid="{1A511366-58D6-4581-A75B-DEE2C3351E02}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{37F226DA-5D6A-4667-BC22-31BB556076FD}" name="ID" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{1E1F3974-2372-4E13-B8D1-029D1069FA1C}" name="NOMBRE" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{20B9EAA0-0B0B-4587-972F-1307D6E2341A}" name="ID_CLASE" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CEAC0FD2-82BB-4390-A39E-50AC2FE6C8F5}" name="ID_TIPO_CLASE" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{98A2D25F-E641-48D8-85A1-B4F6FE5783BC}" name="ID_TIPO_PRIMITIVO" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{56E9947F-1A64-4EBF-85FF-381B341B1571}" name="ES_COLECCION" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6BD10E35-F03C-49D5-908E-2E5CEF5B3C92}" name="Tabla7" displayName="Tabla7" ref="A2:B4" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="A2:B4" xr:uid="{6BD10E35-F03C-49D5-908E-2E5CEF5B3C92}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D8C413AE-6D4D-41A4-A5E4-E8086309B76A}" name="ID" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{A9D4FA42-2751-4523-BCCA-576FE5F16CBB}" name="NOMBRE" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F10132A3-C980-47B9-8FC3-1DC2AE879F9B}" name="Tabla8" displayName="Tabla8" ref="A2:E28" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A2:E28" xr:uid="{F10132A3-C980-47B9-8FC3-1DC2AE879F9B}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{17A2852E-4687-4931-9285-F0F05A074AFC}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{16322227-406C-4405-8468-446BFF4A8592}" name="ID_OBJETO" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{911EA243-45FC-42F3-8A79-EA995B705FD4}" name="ID_ATRIBUTO" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{377A820B-7800-438F-BCE4-E215D0FAC04B}" name="VALOR_PRIMITIVO" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{37F1C8EA-B4AD-4B0B-93A2-CC770BDF3372}" name="ID_OBJETO_VALOR" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3EB20B64-F6DD-410D-8178-4BF665C122F3}" name="Tabla4" displayName="Tabla4" ref="A2:B11" totalsRowShown="0" dataDxfId="26">
+  <autoFilter ref="A2:B11" xr:uid="{3EB20B64-F6DD-410D-8178-4BF665C122F3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E2BFE1D0-31AA-4096-A1A9-1EC1DD7949F4}" name="ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{618BA1C2-FD69-4424-9500-69A5BC1723AC}" name="NOMBRE" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1A511366-58D6-4581-A75B-DEE2C3351E02}" name="Tabla5" displayName="Tabla5" ref="A2:F13" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="A2:F13" xr:uid="{1A511366-58D6-4581-A75B-DEE2C3351E02}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{37F226DA-5D6A-4667-BC22-31BB556076FD}" name="ID" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{1E1F3974-2372-4E13-B8D1-029D1069FA1C}" name="NOMBRE" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{20B9EAA0-0B0B-4587-972F-1307D6E2341A}" name="ID_CLASE" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{CEAC0FD2-82BB-4390-A39E-50AC2FE6C8F5}" name="ID_TIPO_CLASE" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{98A2D25F-E641-48D8-85A1-B4F6FE5783BC}" name="ID_TIPO_PRIMITIVO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{56E9947F-1A64-4EBF-85FF-381B341B1571}" name="ES_COLECCION" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1097,7 +1139,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -1123,7 +1165,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>44683</v>
       </c>
     </row>
@@ -1137,52 +1179,603 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800419FB-0D8F-4C91-996D-B215BAFBD9A6}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D36DFC8-5BE2-4975-BB25-A5E0CB36C4A3}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="124.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>123</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>42</v>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="17">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1235</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>7</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="17">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7</v>
+      </c>
+      <c r="D18" s="8">
+        <v>452</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8">
+        <v>8</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>11</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8">
+        <v>4</v>
+      </c>
+      <c r="C24" s="8">
+        <v>7</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2345</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
+        <v>4</v>
+      </c>
+      <c r="C27" s="17">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8">
+        <v>4</v>
+      </c>
+      <c r="C28" s="17">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1191,108 +1784,603 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2E56A2-F0E5-48C0-8BE1-44637F7D6F40}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC856C59-DFE4-4335-A065-32B49757CD3D}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="124.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>123</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="D11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="D12" s="8">
+        <v>1235</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="17">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7</v>
+      </c>
+      <c r="D18" s="8">
+        <v>452</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>50</v>
+      <c r="D19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>11</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8">
+        <v>4</v>
+      </c>
+      <c r="C24" s="8">
+        <v>7</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2345</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
+        <v>4</v>
+      </c>
+      <c r="C27" s="17">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8">
+        <v>4</v>
+      </c>
+      <c r="C28" s="17">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1308,7 +2396,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
@@ -1422,7 +2510,7 @@
       <c r="D10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1430,7 +2518,7 @@
       <c r="D11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1446,14 +2534,178 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800419FB-0D8F-4C91-996D-B215BAFBD9A6}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2E56A2-F0E5-48C0-8BE1-44637F7D6F40}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C56056-1706-433D-8016-D90B33329DC4}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -1790,609 +3042,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D36DFC8-5BE2-4975-BB25-A5E0CB36C4A3}">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="124.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>123</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8">
-        <v>7</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1235</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8">
-        <v>6</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8">
-        <v>7</v>
-      </c>
-      <c r="D16" s="8">
-        <v>452</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8">
-        <v>8</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8">
-        <v>9</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8">
-        <v>3</v>
-      </c>
-      <c r="C19" s="8">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8">
-        <v>3</v>
-      </c>
-      <c r="C20" s="8">
-        <v>11</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8">
-        <v>6</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8">
-        <v>4</v>
-      </c>
-      <c r="C22" s="8">
-        <v>7</v>
-      </c>
-      <c r="D22" s="8">
-        <v>2345</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8">
-        <v>8</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>22</v>
-      </c>
-      <c r="B24" s="8">
-        <v>4</v>
-      </c>
-      <c r="C24" s="8">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8">
-        <v>10</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>24</v>
-      </c>
-      <c r="B26" s="8">
-        <v>4</v>
-      </c>
-      <c r="C26" s="8">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>25</v>
-      </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="12">
-        <v>5</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="8">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>26</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="12">
-        <v>5</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="8">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/workspace/tp-patrones-persistidor/SQL/Modelo.xlsx
+++ b/workspace/tp-patrones-persistidor/SQL/Modelo.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java64\workspace\tp-patrones-persistidor\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A251B5-5FC5-4D77-B34F-D4C67952A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D253ABAF-DC56-4067-A004-B23EC3A3AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1FA6D53A-2D3A-40AA-99BD-3A5E3626B78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{1FA6D53A-2D3A-40AA-99BD-3A5E3626B78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sesion" sheetId="1" r:id="rId1"/>
     <sheet name="Valor" sheetId="6" r:id="rId2"/>
-    <sheet name="Valor (2)" sheetId="7" r:id="rId3"/>
-    <sheet name="Objeto" sheetId="5" r:id="rId4"/>
-    <sheet name="Clase" sheetId="2" r:id="rId5"/>
-    <sheet name="Primitivo" sheetId="4" r:id="rId6"/>
-    <sheet name="Atributo" sheetId="3" r:id="rId7"/>
+    <sheet name="Objeto" sheetId="5" r:id="rId3"/>
+    <sheet name="Clase" sheetId="2" r:id="rId4"/>
+    <sheet name="Primitivo" sheetId="4" r:id="rId5"/>
+    <sheet name="Atributo" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
   <si>
     <t>ID_SESION</t>
   </si>
@@ -250,12 +249,6 @@
     <t>Este tiene null porque no los persistio directamente alguien</t>
   </si>
   <si>
-    <t>NOTA IMPORTANTE: no vale persistir directamente un primitivo, ejemplo: Persistidor.store(2)</t>
-  </si>
-  <si>
-    <t>NOTA IMPORTANTE: no vale persistir directamente un array, ejemplo: Persistidor.store(ArrayList&lt;int&gt;)</t>
-  </si>
-  <si>
     <t>NOTA IMPORTANTE: si tengo ID_TIPO_PRIMITIVO = int y ES_COLECCION = TRUE, significa que esto es un array de ese primitivo (en este caso array de int)</t>
   </si>
   <si>
@@ -395,9 +388,6 @@
   </si>
   <si>
     <t>Valor del segundo elemento del atributo "direcciones" de tipo coleccion de Direccion para el objeto de ID = 1 de tipo Persona</t>
-  </si>
-  <si>
-    <t>Quizas si, preguntarle al profe :P</t>
   </si>
   <si>
     <t>Relacion con Tabla "Sesion"</t>
@@ -428,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,13 +458,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -489,7 +472,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,11 +482,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -575,13 +553,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -604,28 +581,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="27">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -643,45 +639,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -743,94 +700,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2BD840E0-ABD5-43A3-8673-C8CFCCBF6454}" name="Tabla3" displayName="Tabla3" ref="A2:B3" totalsRowShown="0" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2BD840E0-ABD5-43A3-8673-C8CFCCBF6454}" name="Tabla3" displayName="Tabla3" ref="A2:B3" totalsRowShown="0" dataDxfId="26">
   <autoFilter ref="A2:B3" xr:uid="{2BD840E0-ABD5-43A3-8673-C8CFCCBF6454}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E00A949B-7D0F-47D9-B93C-25FBD1439E83}" name="ID" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{0BC868F1-730B-4C4D-993F-5623287758A0}" name="ULTIMO_ACCESO" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{E00A949B-7D0F-47D9-B93C-25FBD1439E83}" name="ID" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{0BC868F1-730B-4C4D-993F-5623287758A0}" name="ULTIMO_ACCESO" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F10132A3-C980-47B9-8FC3-1DC2AE879F9B}" name="Tabla8" displayName="Tabla8" ref="A2:E28" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F10132A3-C980-47B9-8FC3-1DC2AE879F9B}" name="Tabla8" displayName="Tabla8" ref="A2:E28" totalsRowShown="0" dataDxfId="23">
   <autoFilter ref="A2:E28" xr:uid="{F10132A3-C980-47B9-8FC3-1DC2AE879F9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E28">
     <sortCondition ref="B2:B28"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{17A2852E-4687-4931-9285-F0F05A074AFC}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{16322227-406C-4405-8468-446BFF4A8592}" name="ID_OBJETO" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{911EA243-45FC-42F3-8A79-EA995B705FD4}" name="ID_ATRIBUTO" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{377A820B-7800-438F-BCE4-E215D0FAC04B}" name="VALOR_PRIMITIVO" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{37F1C8EA-B4AD-4B0B-93A2-CC770BDF3372}" name="ID_OBJETO_VALOR" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{17A2852E-4687-4931-9285-F0F05A074AFC}" name="ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{16322227-406C-4405-8468-446BFF4A8592}" name="ID_OBJETO" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{911EA243-45FC-42F3-8A79-EA995B705FD4}" name="ID_ATRIBUTO" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{377A820B-7800-438F-BCE4-E215D0FAC04B}" name="VALOR_PRIMITIVO" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{37F1C8EA-B4AD-4B0B-93A2-CC770BDF3372}" name="ID_OBJETO_VALOR" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0581CEA5-6664-41E3-A047-511CA1CB1114}" name="Tabla82" displayName="Tabla82" ref="A2:E28" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A2:E28" xr:uid="{F10132A3-C980-47B9-8FC3-1DC2AE879F9B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E28">
-    <sortCondition ref="B2:B28"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C852D5BE-EB1C-4CCF-908B-10F889F0A1F0}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{73C2CA4D-4B53-4DC5-BF4C-77B434A77712}" name="ID_OBJETO" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{ED602148-F58D-443F-AED8-5265171D437C}" name="ID_ATRIBUTO" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{14F0CCEC-E49C-4AA5-AE7B-F1CFC6B97B97}" name="VALOR_PRIMITIVO" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{0B819FDC-AD75-4B7D-BFBA-E976E1442BCD}" name="ID_OBJETO_VALOR" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3364FA21-105C-411A-BF6F-0EB60345DD01}" name="Tabla6" displayName="Tabla6" ref="A2:C6" totalsRowShown="0" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A2:C6" xr:uid="{3364FA21-105C-411A-BF6F-0EB60345DD01}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E9A185FE-D844-473A-AD5A-D223F152451C}" name="ID" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{0F766A12-09DE-49FD-A7C5-474E244260DB}" name="ID_SESION" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{F5B65D11-8362-47A5-B994-9EDB047FFE26}" name="ID_CLASE" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3364FA21-105C-411A-BF6F-0EB60345DD01}" name="Tabla6" displayName="Tabla6" ref="A2:C6" totalsRowShown="0" dataDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A2:C6" xr:uid="{3364FA21-105C-411A-BF6F-0EB60345DD01}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E9A185FE-D844-473A-AD5A-D223F152451C}" name="ID" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{0F766A12-09DE-49FD-A7C5-474E244260DB}" name="ID_SESION" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{F5B65D11-8362-47A5-B994-9EDB047FFE26}" name="ID_CLASE" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6BD10E35-F03C-49D5-908E-2E5CEF5B3C92}" name="Tabla7" displayName="Tabla7" ref="A2:B4" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A2:B4" xr:uid="{6BD10E35-F03C-49D5-908E-2E5CEF5B3C92}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D8C413AE-6D4D-41A4-A5E4-E8086309B76A}" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{A9D4FA42-2751-4523-BCCA-576FE5F16CBB}" name="NOMBRE" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6BD10E35-F03C-49D5-908E-2E5CEF5B3C92}" name="Tabla7" displayName="Tabla7" ref="A2:B4" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="A2:B4" xr:uid="{6BD10E35-F03C-49D5-908E-2E5CEF5B3C92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3EB20B64-F6DD-410D-8178-4BF665C122F3}" name="Tabla4" displayName="Tabla4" ref="A2:B11" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A2:B11" xr:uid="{3EB20B64-F6DD-410D-8178-4BF665C122F3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D8C413AE-6D4D-41A4-A5E4-E8086309B76A}" name="ID" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{A9D4FA42-2751-4523-BCCA-576FE5F16CBB}" name="NOMBRE" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{E2BFE1D0-31AA-4096-A1A9-1EC1DD7949F4}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{618BA1C2-FD69-4424-9500-69A5BC1723AC}" name="NOMBRE" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3EB20B64-F6DD-410D-8178-4BF665C122F3}" name="Tabla4" displayName="Tabla4" ref="A2:B11" totalsRowShown="0" dataDxfId="26">
-  <autoFilter ref="A2:B11" xr:uid="{3EB20B64-F6DD-410D-8178-4BF665C122F3}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E2BFE1D0-31AA-4096-A1A9-1EC1DD7949F4}" name="ID" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{618BA1C2-FD69-4424-9500-69A5BC1723AC}" name="NOMBRE" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1A511366-58D6-4581-A75B-DEE2C3351E02}" name="Tabla5" displayName="Tabla5" ref="A2:F13" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1A511366-58D6-4581-A75B-DEE2C3351E02}" name="Tabla5" displayName="Tabla5" ref="A2:F13" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A2:F13" xr:uid="{1A511366-58D6-4581-A75B-DEE2C3351E02}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{37F226DA-5D6A-4667-BC22-31BB556076FD}" name="ID" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{1E1F3974-2372-4E13-B8D1-029D1069FA1C}" name="NOMBRE" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{20B9EAA0-0B0B-4587-972F-1307D6E2341A}" name="ID_CLASE" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{CEAC0FD2-82BB-4390-A39E-50AC2FE6C8F5}" name="ID_TIPO_CLASE" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{98A2D25F-E641-48D8-85A1-B4F6FE5783BC}" name="ID_TIPO_PRIMITIVO" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{56E9947F-1A64-4EBF-85FF-381B341B1571}" name="ES_COLECCION" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{37F226DA-5D6A-4667-BC22-31BB556076FD}" name="ID" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{1E1F3974-2372-4E13-B8D1-029D1069FA1C}" name="NOMBRE" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{20B9EAA0-0B0B-4587-972F-1307D6E2341A}" name="ID_CLASE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CEAC0FD2-82BB-4390-A39E-50AC2FE6C8F5}" name="ID_TIPO_CLASE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{98A2D25F-E641-48D8-85A1-B4F6FE5783BC}" name="ID_TIPO_PRIMITIVO" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{56E9947F-1A64-4EBF-85FF-381B341B1571}" name="ES_COLECCION" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1150,7 +1090,7 @@
         <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,14 +1098,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>44683</v>
       </c>
     </row>
@@ -1207,12 +1147,12 @@
         <v>53</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1232,7 +1172,7 @@
       <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1251,7 +1191,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,13 +1205,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,17 +1241,17 @@
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,17 +1261,17 @@
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,17 +1281,17 @@
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,7 +1301,7 @@
       <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -1371,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,7 +1321,7 @@
       <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -1391,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,13 +1345,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,7 +1361,7 @@
       <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>7</v>
       </c>
       <c r="D12" s="8">
@@ -1431,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1441,17 +1381,17 @@
       <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,17 +1401,17 @@
       <c r="B14" s="8">
         <v>2</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1485,13 +1425,13 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,13 +1445,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,13 +1465,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,7 +1491,7 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,13 +1505,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1585,13 +1525,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,13 +1545,13 @@
         <v>10</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,13 +1565,13 @@
         <v>11</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,13 +1585,13 @@
         <v>6</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1685,13 +1625,13 @@
         <v>8</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,13 +1645,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1721,17 +1661,17 @@
       <c r="B27" s="8">
         <v>4</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="15">
         <v>10</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,35 +1681,35 @@
       <c r="B28" s="8">
         <v>4</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="15">
         <v>11</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F31" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1784,616 +1724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC856C59-DFE4-4335-A065-32B49757CD3D}">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="124.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>123</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16">
-        <v>4</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>25</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>26</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="16">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1235</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>6</v>
-      </c>
-      <c r="B13" s="8">
-        <v>2</v>
-      </c>
-      <c r="C13" s="17">
-        <v>8</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>7</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2</v>
-      </c>
-      <c r="C14" s="17">
-        <v>9</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>8</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>9</v>
-      </c>
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="8">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8">
-        <v>6</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8">
-        <v>452</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8">
-        <v>3</v>
-      </c>
-      <c r="C19" s="8">
-        <v>8</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8">
-        <v>3</v>
-      </c>
-      <c r="C20" s="8">
-        <v>9</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8">
-        <v>3</v>
-      </c>
-      <c r="C21" s="8">
-        <v>10</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>18</v>
-      </c>
-      <c r="B22" s="8">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8">
-        <v>11</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>20</v>
-      </c>
-      <c r="B24" s="8">
-        <v>4</v>
-      </c>
-      <c r="C24" s="8">
-        <v>7</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2345</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>21</v>
-      </c>
-      <c r="B25" s="8">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>22</v>
-      </c>
-      <c r="B26" s="8">
-        <v>4</v>
-      </c>
-      <c r="C26" s="8">
-        <v>9</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>23</v>
-      </c>
-      <c r="B27" s="8">
-        <v>4</v>
-      </c>
-      <c r="C27" s="17">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>24</v>
-      </c>
-      <c r="B28" s="8">
-        <v>4</v>
-      </c>
-      <c r="C28" s="17">
-        <v>11</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CBBB6F-8335-48EE-8480-49A90F0FD67D}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,10 +1750,10 @@
       <c r="C1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2430,8 +1765,8 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2503,23 +1838,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2533,7 +1852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800419FB-0D8F-4C91-996D-B215BAFBD9A6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2587,7 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2E56A2-F0E5-48C0-8BE1-44637F7D6F40}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2697,11 +2016,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C56056-1706-433D-8016-D90B33329DC4}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2736,7 +2055,7 @@
       <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2759,7 +2078,7 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -2881,7 +2200,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -3013,24 +2332,24 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="G16" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
